--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/90/Output_3_37.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/90/Output_3_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2440403.678955577</v>
+        <v>2610444.491578321</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14288614.32631045</v>
+        <v>12244790.98632948</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>393801.3664809175</v>
+        <v>393801.3664809167</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5834026.190412507</v>
+        <v>5892747.117503471</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>315.2871342255287</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C3" t="n">
-        <v>24.76484596498756</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D3" t="n">
-        <v>28.11631013281968</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U3" t="n">
-        <v>28.11631013281968</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X3" t="n">
-        <v>28.11631013281968</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="4">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>28.11631013281968</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>28.11631013281968</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>24.76484596498756</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>100.0334464412859</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>28.11631013281968</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>292.9082206543459</v>
+        <v>263.0316841869443</v>
       </c>
       <c r="C5" t="n">
-        <v>292.9082206543459</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
@@ -908,10 +908,10 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>187.4570595107944</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>292.9082206543459</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C6" t="n">
         <v>116.3308444476703</v>
@@ -981,10 +981,10 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G6" t="n">
         <v>93.11323406457203</v>
@@ -1023,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T6" t="n">
         <v>140.4611363452985</v>
       </c>
       <c r="U6" t="n">
-        <v>71.84697301441827</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V6" t="n">
         <v>202.9234074721264</v>
@@ -1041,7 +1041,7 @@
         <v>161.8425727710037</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="7">
@@ -1063,16 +1063,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>161.673798810038</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>174.5887432526966</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>205.6569777774022</v>
+        <v>266.4414981451791</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1187,13 +1187,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>7.602798843930202</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>161.673798810038</v>
       </c>
       <c r="W10" t="n">
-        <v>65.76953573495733</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868317</v>
       </c>
       <c r="D11" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068496</v>
       </c>
       <c r="E11" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>269.7056146026325</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>68.77571864162749</v>
+        <v>103.3236211855909</v>
       </c>
       <c r="T11" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458131</v>
       </c>
       <c r="U11" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>319.3666181810495</v>
+        <v>353.9145207250129</v>
       </c>
       <c r="W11" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026565</v>
       </c>
       <c r="X11" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439301</v>
       </c>
       <c r="Y11" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446585</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>135.7049349459097</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>127.1357026005335</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>103.1368198100098</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>130.0464974647467</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>107.8104032629636</v>
+        <v>79.90359977580457</v>
       </c>
       <c r="I13" t="n">
-        <v>64.22298003316328</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>12.02032463573508</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>244.3464501740879</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>205.5903550446894</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868328</v>
       </c>
       <c r="D14" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068496</v>
       </c>
       <c r="E14" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.54790254396343</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.3236211855909</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458131</v>
       </c>
       <c r="U14" t="n">
-        <v>117.7836422724724</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>319.3666181810495</v>
+        <v>353.9145207250129</v>
       </c>
       <c r="W14" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026565</v>
       </c>
       <c r="X14" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439301</v>
       </c>
       <c r="Y14" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446585</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.7164064809815</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>135.7049349459097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>127.1357026005335</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>129.9982212447115</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>103.1850960300447</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>64.22298003316328</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>12.02032463573508</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>205.5903550446894</v>
+        <v>194.7294695699098</v>
       </c>
       <c r="Y16" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868328</v>
       </c>
       <c r="D17" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068496</v>
       </c>
       <c r="E17" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>269.7056146026319</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.54790254396343</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.77571864162749</v>
+        <v>103.3236211855909</v>
       </c>
       <c r="T17" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458126</v>
       </c>
       <c r="U17" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>319.3666181810495</v>
+        <v>353.9145207250129</v>
       </c>
       <c r="W17" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026565</v>
       </c>
       <c r="X17" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439301</v>
       </c>
       <c r="Y17" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446585</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>135.7049349459097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>127.1357026005335</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>129.9982212447115</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>130.0464974647467</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>37.36157859846145</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>12.02032463573508</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>242.8347014707352</v>
+        <v>40.84698832683252</v>
       </c>
       <c r="V19" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868328</v>
       </c>
       <c r="D20" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068488</v>
       </c>
       <c r="E20" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>34.54790254396343</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>103.3236211855909</v>
       </c>
       <c r="T20" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458131</v>
       </c>
       <c r="U20" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>319.3666181810495</v>
+        <v>353.9145207250129</v>
       </c>
       <c r="W20" t="n">
-        <v>70.27130546372791</v>
+        <v>392.4274362026565</v>
       </c>
       <c r="X20" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446585</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>135.7049349459097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>127.1357026005335</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>129.9982212447115</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>103.1850960300447</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>64.22298003316328</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>12.02032463573508</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>237.5559772452486</v>
+        <v>35.51998788131071</v>
       </c>
       <c r="X22" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.77571864162749</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>135.7049349459097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>127.1357026005335</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>129.9982212447115</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>103.1850960300445</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>64.22298003316328</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>12.02032463573508</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>244.3464501740879</v>
+        <v>42.31046081015054</v>
       </c>
       <c r="W25" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2719,16 +2719,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>124.2290557831226</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2770,7 +2770,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>42.35873703018444</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>116.2748171257526</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>96.44420510686466</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>379.9752792759751</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>386.9571213141932</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>383.38509323421</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>386.0425690809814</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>385.1983386198541</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>364.6210704138062</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>259.2150933680659</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.64901981295137</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>183.0417138731735</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>220.0967589369122</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
-        <v>318.2399193523734</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>356.7528348300169</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>371.9281974712906</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>365.6092959720189</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>152.5897076523053</v>
+        <v>178.1668213893233</v>
       </c>
       <c r="C34" t="n">
-        <v>134.5782361172335</v>
+        <v>160.1553498542515</v>
       </c>
       <c r="D34" t="n">
-        <v>126.0090037718574</v>
+        <v>151.5861175088753</v>
       </c>
       <c r="E34" t="n">
-        <v>128.8715224160358</v>
+        <v>154.4486361530533</v>
       </c>
       <c r="F34" t="n">
-        <v>134.4685551105455</v>
+        <v>160.0456688475635</v>
       </c>
       <c r="G34" t="n">
-        <v>128.9197986360705</v>
+        <v>154.4969123730885</v>
       </c>
       <c r="H34" t="n">
-        <v>106.6837044342875</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>63.09628120448715</v>
+        <v>88.67339494150508</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>10.89362580705895</v>
+        <v>36.47073954407688</v>
       </c>
       <c r="S34" t="n">
-        <v>132.7590956334168</v>
+        <v>158.3362093704348</v>
       </c>
       <c r="T34" t="n">
-        <v>205.2313529237194</v>
+        <v>230.8084666607373</v>
       </c>
       <c r="U34" t="n">
-        <v>241.7080026420591</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>243.2197513454117</v>
+        <v>268.7968650824297</v>
       </c>
       <c r="W34" t="n">
-        <v>236.4292784165725</v>
+        <v>262.0063921535904</v>
       </c>
       <c r="X34" t="n">
-        <v>204.4636562160133</v>
+        <v>230.0407699530312</v>
       </c>
       <c r="Y34" t="n">
-        <v>188.4047392545157</v>
+        <v>3.74893436041891</v>
       </c>
     </row>
     <row r="35">
@@ -3442,7 +3442,7 @@
         <v>106.6837044342875</v>
       </c>
       <c r="I37" t="n">
-        <v>63.09628120448715</v>
+        <v>63.09628120448757</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3503,7 +3503,7 @@
         <v>379.9752792759751</v>
       </c>
       <c r="C38" t="n">
-        <v>386.9571213141932</v>
+        <v>386.9571213141941</v>
       </c>
       <c r="D38" t="n">
         <v>383.38509323421</v>
@@ -4153,7 +4153,7 @@
         <v>106.6837044342875</v>
       </c>
       <c r="I46" t="n">
-        <v>63.09628120448648</v>
+        <v>63.09628120448715</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>10.89362580705895</v>
+        <v>10.89362580705979</v>
       </c>
       <c r="S46" t="n">
         <v>132.7590956334168</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87.68081948359844</v>
+        <v>530.724824632631</v>
       </c>
       <c r="C2" t="n">
-        <v>64.82049353730262</v>
+        <v>103.8240946459312</v>
       </c>
       <c r="D2" t="n">
-        <v>45.56827676270697</v>
+        <v>84.57187787133552</v>
       </c>
       <c r="E2" t="n">
-        <v>23.63174095096858</v>
+        <v>62.63534205959712</v>
       </c>
       <c r="F2" t="n">
-        <v>2.547963180772882</v>
+        <v>41.55156428940143</v>
       </c>
       <c r="G2" t="n">
-        <v>2.249304810625574</v>
+        <v>41.25290591925412</v>
       </c>
       <c r="H2" t="n">
-        <v>2.249304810625574</v>
+        <v>41.25290591925412</v>
       </c>
       <c r="I2" t="n">
-        <v>2.249304810625574</v>
+        <v>41.25290591925412</v>
       </c>
       <c r="J2" t="n">
-        <v>30.08445184211706</v>
+        <v>403.8563647361497</v>
       </c>
       <c r="K2" t="n">
-        <v>57.91959887360855</v>
+        <v>914.3610754869194</v>
       </c>
       <c r="L2" t="n">
-        <v>85.75474590510004</v>
+        <v>914.3610754869194</v>
       </c>
       <c r="M2" t="n">
-        <v>85.75474590510004</v>
+        <v>978.4987708258507</v>
       </c>
       <c r="N2" t="n">
-        <v>85.75474590510004</v>
+        <v>978.4987708258507</v>
       </c>
       <c r="O2" t="n">
-        <v>85.75474590510004</v>
+        <v>978.4987708258507</v>
       </c>
       <c r="P2" t="n">
-        <v>85.75474590510004</v>
+        <v>1489.00348157662</v>
       </c>
       <c r="Q2" t="n">
-        <v>85.75474590510004</v>
+        <v>1945.088961080803</v>
       </c>
       <c r="R2" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962706</v>
       </c>
       <c r="S2" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962706</v>
       </c>
       <c r="T2" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962706</v>
       </c>
       <c r="U2" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962706</v>
       </c>
       <c r="V2" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962706</v>
       </c>
       <c r="W2" t="n">
-        <v>112.4652405312787</v>
+        <v>1666.253946263053</v>
       </c>
       <c r="X2" t="n">
-        <v>104.78564573943</v>
+        <v>1254.5339474308</v>
       </c>
       <c r="Y2" t="n">
-        <v>103.4887797347244</v>
+        <v>849.1966773856904</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55.66461400032987</v>
+        <v>608.3763969507094</v>
       </c>
       <c r="C3" t="n">
-        <v>30.6496180761</v>
+        <v>490.8704934682141</v>
       </c>
       <c r="D3" t="n">
-        <v>2.249304810625575</v>
+        <v>387.0305349834991</v>
       </c>
       <c r="E3" t="n">
-        <v>2.249304810625575</v>
+        <v>282.3286012564363</v>
       </c>
       <c r="F3" t="n">
-        <v>2.249304810625575</v>
+        <v>188.6827709393405</v>
       </c>
       <c r="G3" t="n">
-        <v>2.249304810625575</v>
+        <v>94.62899915694453</v>
       </c>
       <c r="H3" t="n">
-        <v>2.249304810625575</v>
+        <v>41.25290591925412</v>
       </c>
       <c r="I3" t="n">
-        <v>2.249304810625575</v>
+        <v>48.69954888116596</v>
       </c>
       <c r="J3" t="n">
-        <v>2.249304810625575</v>
+        <v>320.3970381607571</v>
       </c>
       <c r="K3" t="n">
-        <v>30.08445184211706</v>
+        <v>830.9017489115267</v>
       </c>
       <c r="L3" t="n">
-        <v>57.91959887360855</v>
+        <v>1341.406459662296</v>
       </c>
       <c r="M3" t="n">
-        <v>85.75474590510004</v>
+        <v>1767.921226415061</v>
       </c>
       <c r="N3" t="n">
-        <v>112.4652405312787</v>
+        <v>1767.921226415061</v>
       </c>
       <c r="O3" t="n">
-        <v>112.4652405312787</v>
+        <v>1767.921226415061</v>
       </c>
       <c r="P3" t="n">
-        <v>112.4652405312787</v>
+        <v>1767.921226415061</v>
       </c>
       <c r="Q3" t="n">
-        <v>112.4652405312787</v>
+        <v>1767.921226415061</v>
       </c>
       <c r="R3" t="n">
-        <v>112.4652405312787</v>
+        <v>1849.940536499764</v>
       </c>
       <c r="S3" t="n">
-        <v>112.4652405312787</v>
+        <v>1768.616289061019</v>
       </c>
       <c r="T3" t="n">
-        <v>112.4652405312787</v>
+        <v>1626.736353358697</v>
       </c>
       <c r="U3" t="n">
-        <v>84.0649272658043</v>
+        <v>1441.968157278333</v>
       </c>
       <c r="V3" t="n">
-        <v>84.0649272658043</v>
+        <v>1236.9950184176</v>
       </c>
       <c r="W3" t="n">
-        <v>84.0649272658043</v>
+        <v>1040.473641250817</v>
       </c>
       <c r="X3" t="n">
-        <v>55.66461400032987</v>
+        <v>876.9962950174797</v>
       </c>
       <c r="Y3" t="n">
-        <v>55.66461400032987</v>
+        <v>737.3034063707721</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>84.0649272658043</v>
+        <v>1081.681645245874</v>
       </c>
       <c r="C4" t="n">
-        <v>55.66461400032987</v>
+        <v>909.7090821247896</v>
       </c>
       <c r="D4" t="n">
-        <v>27.26430073485544</v>
+        <v>746.3923092515603</v>
       </c>
       <c r="E4" t="n">
-        <v>2.249304810625575</v>
+        <v>580.1841034044138</v>
       </c>
       <c r="F4" t="n">
-        <v>2.249304810625575</v>
+        <v>408.3223291789742</v>
       </c>
       <c r="G4" t="n">
-        <v>2.249304810625575</v>
+        <v>242.0653594732063</v>
       </c>
       <c r="H4" t="n">
-        <v>2.249304810625575</v>
+        <v>141.0214741789782</v>
       </c>
       <c r="I4" t="n">
-        <v>2.249304810625575</v>
+        <v>41.25290591925412</v>
       </c>
       <c r="J4" t="n">
-        <v>2.249304810625575</v>
+        <v>41.25290591925412</v>
       </c>
       <c r="K4" t="n">
-        <v>30.08445184211706</v>
+        <v>267.7805071250913</v>
       </c>
       <c r="L4" t="n">
-        <v>56.79494646829576</v>
+        <v>622.4698284195121</v>
       </c>
       <c r="M4" t="n">
-        <v>84.63009349978725</v>
+        <v>1013.655623389763</v>
       </c>
       <c r="N4" t="n">
-        <v>112.4652405312787</v>
+        <v>1391.147134265799</v>
       </c>
       <c r="O4" t="n">
-        <v>112.4652405312787</v>
+        <v>1746.575262945562</v>
       </c>
       <c r="P4" t="n">
-        <v>112.4652405312787</v>
+        <v>2037.174474867463</v>
       </c>
       <c r="Q4" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962706</v>
       </c>
       <c r="R4" t="n">
-        <v>112.4652405312787</v>
+        <v>2015.606682649879</v>
       </c>
       <c r="S4" t="n">
-        <v>112.4652405312787</v>
+        <v>2015.606682649879</v>
       </c>
       <c r="T4" t="n">
-        <v>112.4652405312787</v>
+        <v>2015.606682649879</v>
       </c>
       <c r="U4" t="n">
-        <v>112.4652405312787</v>
+        <v>2015.606682649879</v>
       </c>
       <c r="V4" t="n">
-        <v>112.4652405312787</v>
+        <v>2015.606682649879</v>
       </c>
       <c r="W4" t="n">
-        <v>112.4652405312787</v>
+        <v>1740.754278822392</v>
       </c>
       <c r="X4" t="n">
-        <v>84.0649272658043</v>
+        <v>1498.190382268197</v>
       </c>
       <c r="Y4" t="n">
-        <v>84.0649272658043</v>
+        <v>1271.847613957939</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>866.7895322709848</v>
+        <v>129.9297397222204</v>
       </c>
       <c r="C5" t="n">
-        <v>570.9226427211404</v>
+        <v>107.0694137759246</v>
       </c>
       <c r="D5" t="n">
-        <v>551.6704259465447</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E5" t="n">
-        <v>529.7338901348063</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F5" t="n">
-        <v>508.6501123646106</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>319.299547202192</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>23.43265765234767</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>23.43265765234767</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>313.4117961001501</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>313.4117961001501</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>603.3909345479526</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M5" t="n">
-        <v>881.6537441695812</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="N5" t="n">
-        <v>881.6537441695812</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="O5" t="n">
-        <v>881.6537441695812</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P5" t="n">
-        <v>881.6537441695812</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>1171.632882617384</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>1171.632882617384</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1171.632882617384</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1171.632882617384</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1171.632882617384</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V5" t="n">
-        <v>1171.632882617384</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="W5" t="n">
-        <v>1171.632882617384</v>
+        <v>1212.675578485385</v>
       </c>
       <c r="X5" t="n">
-        <v>1163.953287825535</v>
+        <v>800.9555796531324</v>
       </c>
       <c r="Y5" t="n">
-        <v>1162.656421820829</v>
+        <v>395.6183096080227</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>392.2083846396442</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>274.702481157149</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>170.8625226724341</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>170.8625226724341</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>170.8625226724341</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>76.80875089003808</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>23.43265765234767</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>23.43265765234767</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>23.43265765234767</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>313.4117961001501</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
-        <v>313.4117961001501</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M6" t="n">
-        <v>313.4117961001501</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N6" t="n">
-        <v>603.3909345479526</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O6" t="n">
-        <v>603.3909345479526</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P6" t="n">
-        <v>893.370072995755</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q6" t="n">
-        <v>1089.61357253268</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1171.632882617384</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1171.632882617384</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1029.752946915062</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>957.1802469004979</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>752.2071080397642</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>555.6857308729814</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>392.2083846396442</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>392.2083846396442</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>524.9301994938074</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>352.9576363727234</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>189.6408634994941</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>23.43265765234767</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>23.43265765234767</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>23.43265765234767</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>23.43265765234767</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>23.43265765234767</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>23.43265765234767</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>23.43265765234767</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>313.4117961001501</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>603.3909345479526</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>893.370072995755</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>893.370072995755</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>1171.632882617384</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>1171.632882617384</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>1171.632882617384</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>1171.632882617384</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>1171.632882617384</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U7" t="n">
-        <v>891.4484341176878</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V7" t="n">
-        <v>891.4484341176878</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W7" t="n">
-        <v>891.4484341176878</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X7" t="n">
-        <v>891.4484341176878</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>715.096168205873</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1820.815201993657</v>
+        <v>783.8507533973007</v>
       </c>
       <c r="C8" t="n">
-        <v>1797.954876047361</v>
+        <v>356.9500234106007</v>
       </c>
       <c r="D8" t="n">
-        <v>1590.220555060086</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E8" t="n">
-        <v>1164.243615207943</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F8" t="n">
-        <v>739.1194333973433</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
-        <v>334.7803709867919</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>399.5154512777223</v>
+        <v>116.829168004879</v>
       </c>
       <c r="K8" t="n">
-        <v>856.3013579804531</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="L8" t="n">
-        <v>1313.087264683184</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="M8" t="n">
-        <v>1388.813716338606</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N8" t="n">
-        <v>1845.599623041337</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O8" t="n">
-        <v>1845.599623041337</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P8" t="n">
-        <v>1845.599623041337</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1845.599623041337</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V8" t="n">
-        <v>1845.599623041337</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="W8" t="n">
-        <v>1845.599623041337</v>
+        <v>1212.675578485385</v>
       </c>
       <c r="X8" t="n">
-        <v>1837.920028249488</v>
+        <v>1204.995983693536</v>
       </c>
       <c r="Y8" t="n">
-        <v>1836.623162244782</v>
+        <v>1203.699117688831</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35863542273854</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>316.0561247023296</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K9" t="n">
-        <v>772.8420314050604</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="L9" t="n">
-        <v>1229.627938107791</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="M9" t="n">
-        <v>1229.627938107791</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N9" t="n">
-        <v>1306.794406253903</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O9" t="n">
-        <v>1306.794406253903</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P9" t="n">
-        <v>1306.794406253903</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>1763.580312956634</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1120.093114985063</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>948.1205518639796</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>784.8037789907503</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>618.5955731436038</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>446.7337989181643</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>280.4768292123964</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082674</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>263.4395936666639</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>618.1289149610848</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>695.080641322875</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V10" t="n">
-        <v>1845.599623041337</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>1779.165748561582</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>1536.601852007387</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>1310.259083697129</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1918.410291042731</v>
+        <v>2540.701498063314</v>
       </c>
       <c r="C11" t="n">
-        <v>1526.40643231256</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D11" t="n">
-        <v>1138.010682754089</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>746.9306141584751</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>356.7033036044051</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>84.27338986437222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>84.27338986437222</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>84.27338986437222</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>84.27338986437222</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K11" t="n">
-        <v>223.6229244999288</v>
+        <v>464.906172222724</v>
       </c>
       <c r="L11" t="n">
-        <v>223.6229244999288</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M11" t="n">
-        <v>1227.909025918987</v>
+        <v>2011.818868109898</v>
       </c>
       <c r="N11" t="n">
-        <v>2204.160084405688</v>
+        <v>2988.069926596599</v>
       </c>
       <c r="O11" t="n">
-        <v>3049.3047345565</v>
+        <v>3833.214576747411</v>
       </c>
       <c r="P11" t="n">
-        <v>3757.584013714428</v>
+        <v>4541.493855905339</v>
       </c>
       <c r="Q11" t="n">
-        <v>4213.669493218611</v>
+        <v>4997.579335409522</v>
       </c>
       <c r="R11" t="n">
-        <v>4213.669493218611</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S11" t="n">
-        <v>4144.19907034828</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T11" t="n">
-        <v>3958.170370649442</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
-        <v>3734.712332502383</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V11" t="n">
-        <v>3412.119788885161</v>
+        <v>4173.998480931859</v>
       </c>
       <c r="W11" t="n">
-        <v>3050.625310442037</v>
+        <v>3777.607131232206</v>
       </c>
       <c r="X11" t="n">
-        <v>2673.802182866313</v>
+        <v>3365.887132399954</v>
       </c>
       <c r="Y11" t="n">
-        <v>2303.361784077732</v>
+        <v>2960.549862354844</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>651.3968808958274</v>
+        <v>669.4262044372837</v>
       </c>
       <c r="C12" t="n">
-        <v>533.8909774133322</v>
+        <v>551.9203009547884</v>
       </c>
       <c r="D12" t="n">
-        <v>430.0510189286172</v>
+        <v>448.0803424700735</v>
       </c>
       <c r="E12" t="n">
-        <v>325.3490852015544</v>
+        <v>343.3784087430107</v>
       </c>
       <c r="F12" t="n">
-        <v>231.7032548844586</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>137.6494831020626</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H12" t="n">
-        <v>84.27338986437222</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>91.72003282628405</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J12" t="n">
-        <v>363.4175221058752</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="K12" t="n">
-        <v>953.9024486742147</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="L12" t="n">
-        <v>953.9024486742147</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="M12" t="n">
-        <v>953.9024486742147</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N12" t="n">
-        <v>953.9024486742147</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O12" t="n">
-        <v>953.9024486742147</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P12" t="n">
-        <v>1346.796233497399</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1810.941710360179</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1811.636773006137</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1669.756837303815</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1484.988641223451</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1280.015502362718</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1083.494125195935</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>920.0167789625978</v>
+        <v>938.046102504054</v>
       </c>
       <c r="Y12" t="n">
-        <v>780.3238903158901</v>
+        <v>798.3532138573464</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>896.0436848709865</v>
+        <v>850.6571429016587</v>
       </c>
       <c r="C13" t="n">
-        <v>758.9679930064312</v>
+        <v>850.6571429016587</v>
       </c>
       <c r="D13" t="n">
-        <v>630.5480913897309</v>
+        <v>687.3403700284294</v>
       </c>
       <c r="E13" t="n">
-        <v>526.3694855210342</v>
+        <v>521.132164181283</v>
       </c>
       <c r="F13" t="n">
-        <v>389.4045825521234</v>
+        <v>349.2703899558434</v>
       </c>
       <c r="G13" t="n">
-        <v>258.0444841028843</v>
+        <v>183.0134202500755</v>
       </c>
       <c r="H13" t="n">
-        <v>149.1450868675674</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
-        <v>84.27338986437222</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>175.9671416070541</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>436.697166331415</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
-        <v>825.5889111443595</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1250.977129633134</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1662.671064027694</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>2052.301616225981</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2377.103251666406</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2538.305805425692</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2526.164063369394</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2390.925887145057</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T13" t="n">
-        <v>2182.483410627486</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U13" t="n">
-        <v>1937.195833384319</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V13" t="n">
-        <v>1690.381237248877</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W13" t="n">
-        <v>1450.425704677918</v>
+        <v>1267.165879923982</v>
       </c>
       <c r="X13" t="n">
-        <v>1242.758679380252</v>
+        <v>1267.165879923982</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.312782326523</v>
+        <v>1040.823111613724</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2278.394075726158</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C14" t="n">
-        <v>1886.390216995987</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D14" t="n">
-        <v>1497.994467437516</v>
+        <v>1690.508147261615</v>
       </c>
       <c r="E14" t="n">
-        <v>1106.914398841902</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F14" t="n">
-        <v>716.6870882878311</v>
+        <v>839.4070255988737</v>
       </c>
       <c r="G14" t="n">
-        <v>347.2448971338085</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H14" t="n">
-        <v>84.27338986437221</v>
+        <v>137.1995846623572</v>
       </c>
       <c r="I14" t="n">
-        <v>84.27338986437221</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>84.27338986437221</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K14" t="n">
-        <v>458.3626355427622</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1387.987683162039</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2392.273784581097</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N14" t="n">
-        <v>3368.524843067798</v>
+        <v>2988.069926596599</v>
       </c>
       <c r="O14" t="n">
-        <v>4213.66949321861</v>
+        <v>3833.214576747411</v>
       </c>
       <c r="P14" t="n">
-        <v>4213.66949321861</v>
+        <v>4541.493855905339</v>
       </c>
       <c r="Q14" t="n">
-        <v>4213.66949321861</v>
+        <v>4997.579335409522</v>
       </c>
       <c r="R14" t="n">
-        <v>4213.66949321861</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S14" t="n">
-        <v>4213.66949321861</v>
+        <v>5010.768376164565</v>
       </c>
       <c r="T14" t="n">
-        <v>4213.66949321861</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
-        <v>4094.696117185809</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3772.103573568587</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>3410.609095125463</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>3033.785967549739</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2663.345568761159</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>651.3968808958274</v>
+        <v>669.4262044372837</v>
       </c>
       <c r="C15" t="n">
-        <v>533.8909774133322</v>
+        <v>551.9203009547884</v>
       </c>
       <c r="D15" t="n">
-        <v>430.0510189286172</v>
+        <v>448.0803424700735</v>
       </c>
       <c r="E15" t="n">
-        <v>325.3490852015544</v>
+        <v>343.3784087430107</v>
       </c>
       <c r="F15" t="n">
-        <v>231.7032548844586</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>137.6494831020626</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H15" t="n">
-        <v>84.27338986437221</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>91.72003282628404</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J15" t="n">
-        <v>363.4175221058752</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="K15" t="n">
-        <v>953.9024486742147</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="L15" t="n">
-        <v>1790.701256757121</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="M15" t="n">
-        <v>1810.941710360179</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N15" t="n">
-        <v>1810.941710360179</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O15" t="n">
-        <v>1810.941710360179</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P15" t="n">
-        <v>1810.941710360179</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1810.941710360179</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1811.636773006137</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1669.756837303815</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1484.988641223451</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1280.015502362718</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1083.494125195935</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>920.0167789625978</v>
+        <v>938.046102504054</v>
       </c>
       <c r="Y15" t="n">
-        <v>780.3238903158901</v>
+        <v>798.3532138573464</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>896.0436848709862</v>
+        <v>609.453823625581</v>
       </c>
       <c r="C16" t="n">
-        <v>758.9679930064311</v>
+        <v>437.4812605044973</v>
       </c>
       <c r="D16" t="n">
-        <v>630.5480913897306</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E16" t="n">
-        <v>499.236756799113</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F16" t="n">
-        <v>362.2718538302022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G16" t="n">
-        <v>258.0444841028843</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
-        <v>149.1450868675674</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
-        <v>84.27338986437221</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>175.967141607054</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>436.697166331415</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>825.5889111443596</v>
+        <v>741.0109641302447</v>
       </c>
       <c r="M16" t="n">
-        <v>1250.977129633134</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1662.671064027694</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>2052.301616225981</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2377.103251666405</v>
+        <v>2155.715610578196</v>
       </c>
       <c r="Q16" t="n">
-        <v>2538.305805425692</v>
+        <v>2282.715740818958</v>
       </c>
       <c r="R16" t="n">
-        <v>2526.164063369394</v>
+        <v>2282.715740818958</v>
       </c>
       <c r="S16" t="n">
-        <v>2390.925887145057</v>
+        <v>2112.580693338093</v>
       </c>
       <c r="T16" t="n">
-        <v>2182.483410627486</v>
+        <v>1869.241345563993</v>
       </c>
       <c r="U16" t="n">
-        <v>1937.195833384319</v>
+        <v>1589.056897064297</v>
       </c>
       <c r="V16" t="n">
-        <v>1690.381237248877</v>
+        <v>1307.345429672326</v>
       </c>
       <c r="W16" t="n">
-        <v>1450.425704677918</v>
+        <v>1032.493025844839</v>
       </c>
       <c r="X16" t="n">
-        <v>1242.758679380252</v>
+        <v>835.7965919358389</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.312782326523</v>
+        <v>609.453823625581</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1918.41029104273</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>1526.406432312559</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
-        <v>1138.010682754088</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>746.9306141584746</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F17" t="n">
-        <v>356.7033036044036</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>84.27338986437221</v>
+        <v>435.0679631883223</v>
       </c>
       <c r="H17" t="n">
-        <v>84.27338986437221</v>
+        <v>137.1995846623572</v>
       </c>
       <c r="I17" t="n">
-        <v>84.27338986437221</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>84.27338986437221</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>799.7816978398713</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L17" t="n">
-        <v>1729.406745459148</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M17" t="n">
-        <v>2542.689229027968</v>
+        <v>2011.818868109898</v>
       </c>
       <c r="N17" t="n">
-        <v>2542.689229027968</v>
+        <v>2988.069926596599</v>
       </c>
       <c r="O17" t="n">
-        <v>3387.83387917878</v>
+        <v>3833.214576747411</v>
       </c>
       <c r="P17" t="n">
-        <v>4096.113158336708</v>
+        <v>4541.493855905339</v>
       </c>
       <c r="Q17" t="n">
-        <v>4096.113158336708</v>
+        <v>4997.579335409522</v>
       </c>
       <c r="R17" t="n">
-        <v>4213.66949321861</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S17" t="n">
-        <v>4144.199070348279</v>
+        <v>5010.768376164565</v>
       </c>
       <c r="T17" t="n">
-        <v>3958.170370649441</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
-        <v>3734.712332502382</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V17" t="n">
-        <v>3412.119788885161</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W17" t="n">
-        <v>3050.625310442036</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X17" t="n">
-        <v>2673.802182866312</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2303.361784077731</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>651.3968808958274</v>
+        <v>669.4262044372837</v>
       </c>
       <c r="C18" t="n">
-        <v>533.8909774133322</v>
+        <v>551.9203009547884</v>
       </c>
       <c r="D18" t="n">
-        <v>430.0510189286172</v>
+        <v>448.0803424700735</v>
       </c>
       <c r="E18" t="n">
-        <v>325.3490852015544</v>
+        <v>343.3784087430107</v>
       </c>
       <c r="F18" t="n">
-        <v>231.7032548844586</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>137.6494831020626</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H18" t="n">
-        <v>84.27338986437221</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>84.27338986437221</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>84.27338986437221</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>84.27338986437221</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L18" t="n">
-        <v>84.27338986437221</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M18" t="n">
-        <v>84.27338986437221</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N18" t="n">
-        <v>1127.156589435978</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O18" t="n">
-        <v>1892.961020444882</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P18" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>1811.636773006137</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>1669.756837303815</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>1484.988641223451</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>1280.015502362718</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>1083.494125195935</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>920.0167789625978</v>
+        <v>938.046102504054</v>
       </c>
       <c r="Y18" t="n">
-        <v>780.3238903158901</v>
+        <v>798.3532138573464</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>896.0436848709867</v>
+        <v>612.3452565994982</v>
       </c>
       <c r="C19" t="n">
-        <v>758.9679930064315</v>
+        <v>440.3726934784144</v>
       </c>
       <c r="D19" t="n">
-        <v>630.5480913897309</v>
+        <v>440.3726934784144</v>
       </c>
       <c r="E19" t="n">
-        <v>499.2367567991132</v>
+        <v>274.164487631268</v>
       </c>
       <c r="F19" t="n">
-        <v>362.2718538302024</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>230.9117553809633</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>122.0123581456464</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
-        <v>84.27338986437221</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>175.9671416070541</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>436.6971663314151</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
-        <v>825.5889111443598</v>
+        <v>741.0109641302447</v>
       </c>
       <c r="M19" t="n">
-        <v>1250.977129633134</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1662.671064027694</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>2052.301616225981</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2377.103251666406</v>
+        <v>2155.715610578196</v>
       </c>
       <c r="Q19" t="n">
-        <v>2538.305805425692</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2526.164063369394</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2390.925887145058</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>2182.483410627487</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>1937.195833384319</v>
+        <v>1827.981761395475</v>
       </c>
       <c r="V19" t="n">
-        <v>1690.381237248877</v>
+        <v>1546.270294003504</v>
       </c>
       <c r="W19" t="n">
-        <v>1450.425704677919</v>
+        <v>1271.417890176017</v>
       </c>
       <c r="X19" t="n">
-        <v>1242.758679380253</v>
+        <v>1028.853993621822</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.312782326524</v>
+        <v>802.5112253115637</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2278.394075726158</v>
+        <v>2540.701498063314</v>
       </c>
       <c r="C20" t="n">
-        <v>1886.390216995987</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
-        <v>1497.994467437516</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1106.914398841903</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F20" t="n">
-        <v>716.6870882878316</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>347.244897133809</v>
+        <v>435.0679631883223</v>
       </c>
       <c r="H20" t="n">
-        <v>84.27338986437221</v>
+        <v>137.1995846623572</v>
       </c>
       <c r="I20" t="n">
-        <v>84.27338986437221</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>446.8768486812677</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
-        <v>1162.385156656767</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>2092.010204276044</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2204.160084405687</v>
+        <v>2129.375202991801</v>
       </c>
       <c r="N20" t="n">
-        <v>2204.160084405687</v>
+        <v>3105.626261478501</v>
       </c>
       <c r="O20" t="n">
-        <v>3049.304734556499</v>
+        <v>3950.770911629314</v>
       </c>
       <c r="P20" t="n">
-        <v>3757.584013714427</v>
+        <v>4659.050190787241</v>
       </c>
       <c r="Q20" t="n">
-        <v>4213.66949321861</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R20" t="n">
-        <v>4213.66949321861</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S20" t="n">
-        <v>4213.66949321861</v>
+        <v>5010.768376164565</v>
       </c>
       <c r="T20" t="n">
-        <v>4027.640793519772</v>
+        <v>4789.842805209198</v>
       </c>
       <c r="U20" t="n">
-        <v>3804.182755372713</v>
+        <v>4531.48789580561</v>
       </c>
       <c r="V20" t="n">
-        <v>3481.590211755492</v>
+        <v>4173.998480931859</v>
       </c>
       <c r="W20" t="n">
-        <v>3410.609095125464</v>
+        <v>3777.607131232206</v>
       </c>
       <c r="X20" t="n">
-        <v>3033.78596754974</v>
+        <v>3365.887132399954</v>
       </c>
       <c r="Y20" t="n">
-        <v>2663.345568761159</v>
+        <v>2960.549862354844</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>651.3968808958274</v>
+        <v>669.4262044372837</v>
       </c>
       <c r="C21" t="n">
-        <v>533.8909774133322</v>
+        <v>551.9203009547884</v>
       </c>
       <c r="D21" t="n">
-        <v>430.0510189286172</v>
+        <v>448.0803424700735</v>
       </c>
       <c r="E21" t="n">
-        <v>325.3490852015544</v>
+        <v>343.3784087430107</v>
       </c>
       <c r="F21" t="n">
-        <v>231.7032548844586</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>137.6494831020626</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H21" t="n">
-        <v>84.27338986437221</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>84.27338986437221</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J21" t="n">
-        <v>84.27338986437221</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>84.27338986437221</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L21" t="n">
-        <v>84.27338986437221</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M21" t="n">
-        <v>84.27338986437221</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N21" t="n">
-        <v>84.27338986437221</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O21" t="n">
-        <v>630.5985164589015</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P21" t="n">
-        <v>1346.796233497399</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
-        <v>1810.941710360179</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S21" t="n">
-        <v>1811.636773006137</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T21" t="n">
-        <v>1669.756837303815</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U21" t="n">
-        <v>1484.988641223451</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V21" t="n">
-        <v>1280.015502362718</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W21" t="n">
-        <v>1083.494125195935</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X21" t="n">
-        <v>920.0167789625978</v>
+        <v>938.046102504054</v>
       </c>
       <c r="Y21" t="n">
-        <v>780.3238903158901</v>
+        <v>798.3532138573464</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>896.0436848709865</v>
+        <v>612.3940204581197</v>
       </c>
       <c r="C22" t="n">
-        <v>758.9679930064312</v>
+        <v>440.4214573370357</v>
       </c>
       <c r="D22" t="n">
-        <v>630.5480913897309</v>
+        <v>440.4214573370357</v>
       </c>
       <c r="E22" t="n">
-        <v>499.2367567991134</v>
+        <v>440.4214573370357</v>
       </c>
       <c r="F22" t="n">
-        <v>362.2718538302026</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G22" t="n">
-        <v>258.0444841028843</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>149.1450868675674</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>84.27338986437221</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>175.9671416070541</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>436.6971663314151</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>825.5889111443598</v>
+        <v>741.0109641302447</v>
       </c>
       <c r="M22" t="n">
-        <v>1250.977129633135</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>1662.671064027694</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>2052.301616225981</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>2377.103251666406</v>
+        <v>2155.715610578196</v>
       </c>
       <c r="Q22" t="n">
-        <v>2538.305805425692</v>
+        <v>2282.715740818958</v>
       </c>
       <c r="R22" t="n">
-        <v>2526.164063369394</v>
+        <v>2282.715740818958</v>
       </c>
       <c r="S22" t="n">
-        <v>2390.925887145057</v>
+        <v>2112.580693338093</v>
       </c>
       <c r="T22" t="n">
-        <v>2182.483410627486</v>
+        <v>1869.241345563993</v>
       </c>
       <c r="U22" t="n">
-        <v>1937.195833384319</v>
+        <v>1589.056897064297</v>
       </c>
       <c r="V22" t="n">
-        <v>1690.381237248877</v>
+        <v>1307.345429672326</v>
       </c>
       <c r="W22" t="n">
-        <v>1450.425704677918</v>
+        <v>1271.466654034638</v>
       </c>
       <c r="X22" t="n">
-        <v>1242.758679380252</v>
+        <v>1028.902757480443</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.312782326523</v>
+        <v>802.5599891701854</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2285.74068357684</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>1893.736824846669</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
-        <v>1505.341075288198</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E23" t="n">
-        <v>1114.261006692584</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>724.0336961385134</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>354.5915049844907</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>91.61999771505438</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
-        <v>91.61999771505438</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>454.2234565319499</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>1169.731764507449</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1477.683083571193</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M23" t="n">
-        <v>1477.683083571193</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N23" t="n">
-        <v>2453.934142057893</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>3299.078792208706</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4007.358071366633</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>4463.443550870817</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>4580.999885752719</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>4511.529462882389</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4325.500763183551</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
-        <v>4102.042725036492</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V23" t="n">
-        <v>3779.45018141927</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W23" t="n">
-        <v>3417.955702976146</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X23" t="n">
-        <v>3041.132575400422</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y23" t="n">
-        <v>2670.692176611841</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>658.7434887465096</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>541.2375852640143</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>437.3976267792994</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>332.6956930522366</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>239.0498627351408</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>144.9960909527448</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>91.61999771505438</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>99.06664067696622</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>370.7641299565573</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>370.7641299565573</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>370.7641299565573</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M24" t="n">
-        <v>370.7641299565573</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N24" t="n">
-        <v>370.7641299565573</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O24" t="n">
-        <v>637.9451243095837</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P24" t="n">
-        <v>1354.142841348082</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
-        <v>1818.288318210861</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>1818.983380856819</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>1677.103445154497</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>1492.335249074134</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>1287.3621102134</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>1090.840733046617</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>927.3633868132799</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>787.6704981665723</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>903.3902927216684</v>
+        <v>612.3940204581199</v>
       </c>
       <c r="C25" t="n">
-        <v>766.3146008571132</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="D25" t="n">
-        <v>637.8946992404127</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="E25" t="n">
-        <v>506.583364649795</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F25" t="n">
-        <v>369.6184616808843</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G25" t="n">
-        <v>265.3910919535665</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H25" t="n">
-        <v>156.4916947182496</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I25" t="n">
-        <v>91.61999771505438</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J25" t="n">
-        <v>183.3137494577363</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>444.0437741820973</v>
+        <v>386.3216428358239</v>
       </c>
       <c r="L25" t="n">
-        <v>832.935518995042</v>
+        <v>741.0109641302447</v>
       </c>
       <c r="M25" t="n">
-        <v>1258.323737483817</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>1670.017671878376</v>
+        <v>1509.688269976532</v>
       </c>
       <c r="O25" t="n">
-        <v>2059.648224076663</v>
+        <v>1865.116398656295</v>
       </c>
       <c r="P25" t="n">
-        <v>2384.449859517088</v>
+        <v>2155.715610578196</v>
       </c>
       <c r="Q25" t="n">
-        <v>2545.652413276374</v>
+        <v>2282.715740818958</v>
       </c>
       <c r="R25" t="n">
-        <v>2533.510671220076</v>
+        <v>2282.715740818958</v>
       </c>
       <c r="S25" t="n">
-        <v>2398.27249499574</v>
+        <v>2112.580693338093</v>
       </c>
       <c r="T25" t="n">
-        <v>2189.830018478169</v>
+        <v>1869.241345563993</v>
       </c>
       <c r="U25" t="n">
-        <v>1944.542441235002</v>
+        <v>1589.056897064297</v>
       </c>
       <c r="V25" t="n">
-        <v>1697.72784509956</v>
+        <v>1546.319057862125</v>
       </c>
       <c r="W25" t="n">
-        <v>1457.772312528601</v>
+        <v>1271.466654034638</v>
       </c>
       <c r="X25" t="n">
-        <v>1250.105287230935</v>
+        <v>1028.902757480443</v>
       </c>
       <c r="Y25" t="n">
-        <v>1058.659390177205</v>
+        <v>802.5599891701856</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>195.4640539534684</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1125.089101572745</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2129.375202991803</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N26" t="n">
-        <v>3105.626261478504</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6315,13 +6315,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>305.3113489363686</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O27" t="n">
-        <v>1194.79262694784</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>612.3452565994986</v>
+        <v>543.5554397491851</v>
       </c>
       <c r="C28" t="n">
-        <v>440.3726934784146</v>
+        <v>371.5828766281011</v>
       </c>
       <c r="D28" t="n">
-        <v>440.3726934784146</v>
+        <v>371.5828766281011</v>
       </c>
       <c r="E28" t="n">
-        <v>274.1644876312681</v>
+        <v>371.5828766281011</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058286</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058286</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H28" t="n">
         <v>102.3027134058286</v>
@@ -6400,7 +6400,7 @@
         <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578196</v>
       </c>
       <c r="Q28" t="n">
         <v>2282.715740818957</v>
@@ -6409,25 +6409,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>1869.241345563992</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U28" t="n">
-        <v>1589.056897064296</v>
+        <v>1759.191944545162</v>
       </c>
       <c r="V28" t="n">
-        <v>1546.270294003504</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W28" t="n">
-        <v>1271.417890176016</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X28" t="n">
-        <v>1028.853993621822</v>
+        <v>960.0641767715084</v>
       </c>
       <c r="Y28" t="n">
-        <v>802.5112253115642</v>
+        <v>733.7214084612508</v>
       </c>
     </row>
     <row r="29">
@@ -6546,19 +6546,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.990343986338</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>446.1370507523519</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>274.1644876312679</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>274.164487631268</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>274.164487631268</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058284</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058284</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I31" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J31" t="n">
         <v>159.7940416299866</v>
@@ -6646,25 +6646,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2185.297351822124</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>1941.958004048024</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>1661.773555548329</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>1380.062088156358</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W31" t="n">
-        <v>1105.20968432887</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X31" t="n">
-        <v>862.6457877746756</v>
+        <v>789.929129290643</v>
       </c>
       <c r="Y31" t="n">
-        <v>636.3030194644175</v>
+        <v>563.5863609803852</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2278.587040220167</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>1887.721261114921</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
-        <v>1500.463591181376</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E32" t="n">
-        <v>1110.521602210687</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>721.4323712815417</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>353.1282597524439</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>91.29483210793289</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
-        <v>91.29483210793289</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>453.8982909248284</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>453.8982909248284</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L32" t="n">
-        <v>1383.523338544105</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M32" t="n">
-        <v>2387.809439963164</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N32" t="n">
-        <v>3364.060498449865</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4209.205148600677</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>4209.205148600677</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>4447.185270514742</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
-        <v>4564.741605396644</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>4496.409262151239</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4311.518642077326</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
-        <v>4089.198683555192</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V32" t="n">
-        <v>3767.744219562896</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W32" t="n">
-        <v>3407.387820744697</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X32" t="n">
-        <v>3031.702772793898</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y32" t="n">
-        <v>2662.400453630243</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>658.4183231393881</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C33" t="n">
-        <v>540.9124196568929</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D33" t="n">
-        <v>437.0724611721779</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E33" t="n">
-        <v>332.3705274451151</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F33" t="n">
-        <v>238.7246971280193</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G33" t="n">
-        <v>144.6709253456233</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H33" t="n">
-        <v>91.29483210793289</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>91.29483210793289</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>91.29483210793289</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>91.29483210793289</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>91.29483210793289</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>91.29483210793289</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N33" t="n">
-        <v>91.29483210793289</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O33" t="n">
-        <v>637.6199587024621</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P33" t="n">
-        <v>1353.81767574096</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q33" t="n">
-        <v>1817.963152603739</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R33" t="n">
-        <v>1899.982462688443</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S33" t="n">
-        <v>1818.658215249697</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T33" t="n">
-        <v>1676.778279547375</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U33" t="n">
-        <v>1492.010083467012</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V33" t="n">
-        <v>1287.036944606278</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W33" t="n">
-        <v>1090.515567439495</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X33" t="n">
-        <v>927.0382212061585</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y33" t="n">
-        <v>787.3453325594509</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>922.2312984619909</v>
+        <v>980.4906726768761</v>
       </c>
       <c r="C34" t="n">
-        <v>786.2936862223611</v>
+        <v>818.7175920160162</v>
       </c>
       <c r="D34" t="n">
-        <v>659.011864230586</v>
+        <v>665.6003016030107</v>
       </c>
       <c r="E34" t="n">
-        <v>528.8386092648932</v>
+        <v>509.5915782160882</v>
       </c>
       <c r="F34" t="n">
-        <v>393.0117859209079</v>
+        <v>347.9292864508726</v>
       </c>
       <c r="G34" t="n">
-        <v>262.7897670965942</v>
+        <v>191.8717992053286</v>
       </c>
       <c r="H34" t="n">
-        <v>155.0284494862028</v>
+        <v>191.8717992053286</v>
       </c>
       <c r="I34" t="n">
-        <v>91.29483210793289</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J34" t="n">
-        <v>184.1040156910042</v>
+        <v>169.790554389252</v>
       </c>
       <c r="K34" t="n">
-        <v>445.9494722557546</v>
+        <v>406.3146683543547</v>
       </c>
       <c r="L34" t="n">
-        <v>835.9566489090886</v>
+        <v>771.0005024080409</v>
       </c>
       <c r="M34" t="n">
-        <v>1262.460299238253</v>
+        <v>1172.182810137557</v>
       </c>
       <c r="N34" t="n">
-        <v>1675.269665473202</v>
+        <v>1559.670833772858</v>
       </c>
       <c r="O34" t="n">
-        <v>2066.015649511878</v>
+        <v>1925.095475211887</v>
       </c>
       <c r="P34" t="n">
-        <v>2391.932716792692</v>
+        <v>2225.691199893054</v>
       </c>
       <c r="Q34" t="n">
-        <v>2554.250702392367</v>
+        <v>2362.687842893081</v>
       </c>
       <c r="R34" t="n">
-        <v>2543.247039960995</v>
+        <v>2325.848712040478</v>
       </c>
       <c r="S34" t="n">
-        <v>2409.146943361584</v>
+        <v>2165.913147019837</v>
       </c>
       <c r="T34" t="n">
-        <v>2201.842546468938</v>
+        <v>1932.77328170596</v>
       </c>
       <c r="U34" t="n">
-        <v>1957.693048850696</v>
+        <v>1932.77328170596</v>
       </c>
       <c r="V34" t="n">
-        <v>1712.01653234018</v>
+        <v>1661.261296774213</v>
       </c>
       <c r="W34" t="n">
-        <v>1473.199079394147</v>
+        <v>1396.60837540695</v>
       </c>
       <c r="X34" t="n">
-        <v>1266.670133721406</v>
+        <v>1164.24396131298</v>
       </c>
       <c r="Y34" t="n">
-        <v>1076.362316292602</v>
+        <v>1160.457158928718</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2278.587040220166</v>
+        <v>2278.587040220167</v>
       </c>
       <c r="C35" t="n">
-        <v>1887.72126111492</v>
+        <v>1887.721261114921</v>
       </c>
       <c r="D35" t="n">
         <v>1500.463591181375</v>
       </c>
       <c r="E35" t="n">
-        <v>1110.521602210686</v>
+        <v>1110.521602210687</v>
       </c>
       <c r="F35" t="n">
-        <v>721.4323712815408</v>
+        <v>721.4323712815411</v>
       </c>
       <c r="G35" t="n">
         <v>353.1282597524439</v>
       </c>
       <c r="H35" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="I35" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J35" t="n">
         <v>453.8982909248284</v>
@@ -6944,25 +6944,25 @@
         <v>2099.031646519604</v>
       </c>
       <c r="M35" t="n">
-        <v>3103.317747938662</v>
+        <v>2555.23219658372</v>
       </c>
       <c r="N35" t="n">
-        <v>3400.376846734532</v>
+        <v>2555.23219658372</v>
       </c>
       <c r="O35" t="n">
-        <v>3400.376846734532</v>
+        <v>3400.376846734533</v>
       </c>
       <c r="P35" t="n">
-        <v>4108.656125892459</v>
+        <v>4108.65612589246</v>
       </c>
       <c r="Q35" t="n">
-        <v>4564.741605396643</v>
+        <v>4564.741605396644</v>
       </c>
       <c r="R35" t="n">
-        <v>4564.741605396643</v>
+        <v>4564.741605396644</v>
       </c>
       <c r="S35" t="n">
-        <v>4496.409262151237</v>
+        <v>4496.409262151238</v>
       </c>
       <c r="T35" t="n">
         <v>4311.518642077325</v>
@@ -6977,10 +6977,10 @@
         <v>3407.387820744696</v>
       </c>
       <c r="X35" t="n">
-        <v>3031.702772793897</v>
+        <v>3031.702772793898</v>
       </c>
       <c r="Y35" t="n">
-        <v>2662.400453630242</v>
+        <v>2662.400453630243</v>
       </c>
     </row>
     <row r="36">
@@ -7008,28 +7008,28 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H36" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="I36" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J36" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="K36" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="L36" t="n">
-        <v>91.29483210793285</v>
+        <v>810.6675162155727</v>
       </c>
       <c r="M36" t="n">
-        <v>91.29483210793285</v>
+        <v>810.6675162155727</v>
       </c>
       <c r="N36" t="n">
-        <v>294.303467638473</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="O36" t="n">
-        <v>1183.784745649945</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="P36" t="n">
         <v>1899.982462688443</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>922.2312984619907</v>
+        <v>922.2312984619908</v>
       </c>
       <c r="C37" t="n">
         <v>786.293686222361</v>
       </c>
       <c r="D37" t="n">
-        <v>659.0118642305855</v>
+        <v>659.0118642305858</v>
       </c>
       <c r="E37" t="n">
-        <v>528.8386092648932</v>
+        <v>528.8386092648936</v>
       </c>
       <c r="F37" t="n">
-        <v>393.0117859209078</v>
+        <v>393.0117859209083</v>
       </c>
       <c r="G37" t="n">
-        <v>262.7897670965941</v>
+        <v>262.7897670965946</v>
       </c>
       <c r="H37" t="n">
-        <v>155.0284494862027</v>
+        <v>155.0284494862032</v>
       </c>
       <c r="I37" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J37" t="n">
-        <v>184.104015691004</v>
+        <v>184.1040156910041</v>
       </c>
       <c r="K37" t="n">
-        <v>445.9494722557544</v>
+        <v>445.9494722557547</v>
       </c>
       <c r="L37" t="n">
-        <v>835.9566489090884</v>
+        <v>835.9566489090888</v>
       </c>
       <c r="M37" t="n">
-        <v>1262.460299238252</v>
+        <v>1262.460299238253</v>
       </c>
       <c r="N37" t="n">
         <v>1675.269665473202</v>
@@ -7126,7 +7126,7 @@
         <v>2201.842546468938</v>
       </c>
       <c r="U37" t="n">
-        <v>1957.693048850696</v>
+        <v>1957.693048850697</v>
       </c>
       <c r="V37" t="n">
         <v>1712.01653234018</v>
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2278.587040220166</v>
+        <v>2278.587040220167</v>
       </c>
       <c r="C38" t="n">
         <v>1887.72126111492</v>
@@ -7160,7 +7160,7 @@
         <v>1110.521602210687</v>
       </c>
       <c r="F38" t="n">
-        <v>721.4323712815412</v>
+        <v>721.4323712815411</v>
       </c>
       <c r="G38" t="n">
         <v>353.1282597524439</v>
@@ -7181,10 +7181,10 @@
         <v>2099.031646519604</v>
       </c>
       <c r="M38" t="n">
-        <v>3103.317747938662</v>
+        <v>2555.23219658372</v>
       </c>
       <c r="N38" t="n">
-        <v>3400.376846734533</v>
+        <v>2555.23219658372</v>
       </c>
       <c r="O38" t="n">
         <v>3400.376846734533</v>
@@ -7208,7 +7208,7 @@
         <v>4089.198683555192</v>
       </c>
       <c r="V38" t="n">
-        <v>3767.744219562895</v>
+        <v>3767.744219562896</v>
       </c>
       <c r="W38" t="n">
         <v>3407.387820744696</v>
@@ -7217,7 +7217,7 @@
         <v>3031.702772793898</v>
       </c>
       <c r="Y38" t="n">
-        <v>2662.400453630242</v>
+        <v>2662.400453630243</v>
       </c>
     </row>
     <row r="39">
@@ -7254,13 +7254,13 @@
         <v>91.29483210793288</v>
       </c>
       <c r="K39" t="n">
-        <v>91.29483210793288</v>
+        <v>681.7797586762724</v>
       </c>
       <c r="L39" t="n">
-        <v>928.093640190839</v>
+        <v>1518.578566759179</v>
       </c>
       <c r="M39" t="n">
-        <v>928.093640190839</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="N39" t="n">
         <v>1899.982462688443</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>922.2312984619905</v>
+        <v>922.2312984619904</v>
       </c>
       <c r="C40" t="n">
-        <v>786.2936862223607</v>
+        <v>786.2936862223605</v>
       </c>
       <c r="D40" t="n">
-        <v>659.0118642305856</v>
+        <v>659.0118642305854</v>
       </c>
       <c r="E40" t="n">
-        <v>528.8386092648933</v>
+        <v>528.8386092648932</v>
       </c>
       <c r="F40" t="n">
-        <v>393.0117859209079</v>
+        <v>393.0117859209078</v>
       </c>
       <c r="G40" t="n">
-        <v>262.7897670965942</v>
+        <v>262.789767096594</v>
       </c>
       <c r="H40" t="n">
-        <v>155.0284494862028</v>
+        <v>155.0284494862027</v>
       </c>
       <c r="I40" t="n">
         <v>91.29483210793288</v>
       </c>
       <c r="J40" t="n">
-        <v>184.1040156910041</v>
+        <v>184.1040156910044</v>
       </c>
       <c r="K40" t="n">
-        <v>445.9494722557545</v>
+        <v>445.9494722557547</v>
       </c>
       <c r="L40" t="n">
-        <v>835.9566489090885</v>
+        <v>835.9566489090889</v>
       </c>
       <c r="M40" t="n">
-        <v>1262.460299238252</v>
+        <v>1262.460299238253</v>
       </c>
       <c r="N40" t="n">
-        <v>1675.269665473201</v>
+        <v>1675.269665473202</v>
       </c>
       <c r="O40" t="n">
         <v>2066.015649511878</v>
@@ -7354,10 +7354,10 @@
         <v>2554.250702392367</v>
       </c>
       <c r="R40" t="n">
-        <v>2543.247039960994</v>
+        <v>2543.247039960995</v>
       </c>
       <c r="S40" t="n">
-        <v>2409.146943361583</v>
+        <v>2409.146943361584</v>
       </c>
       <c r="T40" t="n">
         <v>2201.842546468938</v>
@@ -7369,7 +7369,7 @@
         <v>1712.016532340179</v>
       </c>
       <c r="W40" t="n">
-        <v>1473.199079394146</v>
+        <v>1473.199079394147</v>
       </c>
       <c r="X40" t="n">
         <v>1266.670133721406</v>
@@ -7397,16 +7397,16 @@
         <v>1110.521602210687</v>
       </c>
       <c r="F41" t="n">
-        <v>721.4323712815412</v>
+        <v>721.432371281541</v>
       </c>
       <c r="G41" t="n">
-        <v>353.1282597524439</v>
+        <v>353.1282597524438</v>
       </c>
       <c r="H41" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793279</v>
       </c>
       <c r="I41" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J41" t="n">
         <v>453.8982909248284</v>
@@ -7418,31 +7418,31 @@
         <v>2099.031646519604</v>
       </c>
       <c r="M41" t="n">
-        <v>3103.317747938662</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="N41" t="n">
-        <v>3103.317747938662</v>
+        <v>2437.675861701818</v>
       </c>
       <c r="O41" t="n">
-        <v>3400.376846734532</v>
+        <v>3282.82051185263</v>
       </c>
       <c r="P41" t="n">
-        <v>4108.656125892459</v>
+        <v>3991.099791010558</v>
       </c>
       <c r="Q41" t="n">
-        <v>4564.741605396643</v>
+        <v>4447.185270514741</v>
       </c>
       <c r="R41" t="n">
-        <v>4564.741605396643</v>
+        <v>4564.741605396644</v>
       </c>
       <c r="S41" t="n">
-        <v>4496.409262151237</v>
+        <v>4496.409262151238</v>
       </c>
       <c r="T41" t="n">
-        <v>4311.518642077324</v>
+        <v>4311.518642077325</v>
       </c>
       <c r="U41" t="n">
-        <v>4089.198683555191</v>
+        <v>4089.198683555192</v>
       </c>
       <c r="V41" t="n">
         <v>3767.744219562895</v>
@@ -7482,28 +7482,28 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H42" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="I42" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J42" t="n">
-        <v>362.9923213875239</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="K42" t="n">
-        <v>362.9923213875239</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="L42" t="n">
-        <v>843.9959247123975</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="M42" t="n">
-        <v>1899.982462688443</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="N42" t="n">
-        <v>1899.982462688443</v>
+        <v>1180.609778580803</v>
       </c>
       <c r="O42" t="n">
-        <v>1899.982462688443</v>
+        <v>1183.784745649945</v>
       </c>
       <c r="P42" t="n">
         <v>1899.982462688443</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>922.2312984619909</v>
+        <v>922.2312984619905</v>
       </c>
       <c r="C43" t="n">
-        <v>786.2936862223612</v>
+        <v>786.2936862223607</v>
       </c>
       <c r="D43" t="n">
-        <v>659.0118642305861</v>
+        <v>659.0118642305856</v>
       </c>
       <c r="E43" t="n">
-        <v>528.8386092648936</v>
+        <v>528.8386092648933</v>
       </c>
       <c r="F43" t="n">
-        <v>393.0117859209083</v>
+        <v>393.0117859209079</v>
       </c>
       <c r="G43" t="n">
-        <v>262.7897670965943</v>
+        <v>262.7897670965942</v>
       </c>
       <c r="H43" t="n">
-        <v>155.0284494862027</v>
+        <v>155.0284494862028</v>
       </c>
       <c r="I43" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J43" t="n">
-        <v>184.1040156910041</v>
+        <v>184.1040156910042</v>
       </c>
       <c r="K43" t="n">
-        <v>445.9494722557545</v>
+        <v>445.9494722557546</v>
       </c>
       <c r="L43" t="n">
-        <v>835.9566489090885</v>
+        <v>835.9566489090886</v>
       </c>
       <c r="M43" t="n">
-        <v>1262.460299238252</v>
+        <v>1262.460299238253</v>
       </c>
       <c r="N43" t="n">
         <v>1675.269665473202</v>
@@ -7585,25 +7585,25 @@
         <v>2066.015649511878</v>
       </c>
       <c r="P43" t="n">
-        <v>2391.932716792692</v>
+        <v>2391.932716792693</v>
       </c>
       <c r="Q43" t="n">
-        <v>2554.250702392367</v>
+        <v>2554.250702392368</v>
       </c>
       <c r="R43" t="n">
-        <v>2543.247039960995</v>
+        <v>2543.247039960994</v>
       </c>
       <c r="S43" t="n">
-        <v>2409.146943361584</v>
+        <v>2409.146943361583</v>
       </c>
       <c r="T43" t="n">
         <v>2201.842546468938</v>
       </c>
       <c r="U43" t="n">
-        <v>1957.693048850697</v>
+        <v>1957.693048850696</v>
       </c>
       <c r="V43" t="n">
-        <v>1712.01653234018</v>
+        <v>1712.016532340179</v>
       </c>
       <c r="W43" t="n">
         <v>1473.199079394147</v>
@@ -7631,19 +7631,19 @@
         <v>1500.463591181375</v>
       </c>
       <c r="E44" t="n">
-        <v>1110.521602210686</v>
+        <v>1110.521602210687</v>
       </c>
       <c r="F44" t="n">
-        <v>721.4323712815408</v>
+        <v>721.432371281541</v>
       </c>
       <c r="G44" t="n">
-        <v>353.1282597524439</v>
+        <v>353.1282597524438</v>
       </c>
       <c r="H44" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793279</v>
       </c>
       <c r="I44" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J44" t="n">
         <v>453.8982909248284</v>
@@ -7655,31 +7655,31 @@
         <v>2099.031646519604</v>
       </c>
       <c r="M44" t="n">
-        <v>3103.317747938662</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="N44" t="n">
-        <v>3103.317747938662</v>
+        <v>2437.675861701818</v>
       </c>
       <c r="O44" t="n">
-        <v>3400.376846734532</v>
+        <v>3282.82051185263</v>
       </c>
       <c r="P44" t="n">
-        <v>4108.656125892459</v>
+        <v>3991.099791010558</v>
       </c>
       <c r="Q44" t="n">
-        <v>4564.741605396643</v>
+        <v>4447.185270514741</v>
       </c>
       <c r="R44" t="n">
-        <v>4564.741605396643</v>
+        <v>4564.741605396644</v>
       </c>
       <c r="S44" t="n">
-        <v>4496.409262151237</v>
+        <v>4496.409262151238</v>
       </c>
       <c r="T44" t="n">
-        <v>4311.518642077324</v>
+        <v>4311.518642077325</v>
       </c>
       <c r="U44" t="n">
-        <v>4089.198683555191</v>
+        <v>4089.198683555192</v>
       </c>
       <c r="V44" t="n">
         <v>3767.744219562895</v>
@@ -7688,7 +7688,7 @@
         <v>3407.387820744696</v>
       </c>
       <c r="X44" t="n">
-        <v>3031.702772793897</v>
+        <v>3031.702772793898</v>
       </c>
       <c r="Y44" t="n">
         <v>2662.400453630242</v>
@@ -7719,22 +7719,22 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H45" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="I45" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J45" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="K45" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="L45" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="M45" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="N45" t="n">
         <v>1010.501184676971</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>922.2312984619903</v>
+        <v>922.2312984619905</v>
       </c>
       <c r="C46" t="n">
-        <v>786.2936862223605</v>
+        <v>786.2936862223607</v>
       </c>
       <c r="D46" t="n">
-        <v>659.0118642305854</v>
+        <v>659.0118642305856</v>
       </c>
       <c r="E46" t="n">
-        <v>528.8386092648931</v>
+        <v>528.8386092648933</v>
       </c>
       <c r="F46" t="n">
-        <v>393.0117859209077</v>
+        <v>393.0117859209079</v>
       </c>
       <c r="G46" t="n">
-        <v>262.789767096594</v>
+        <v>262.7897670965942</v>
       </c>
       <c r="H46" t="n">
-        <v>155.0284494862026</v>
+        <v>155.0284494862027</v>
       </c>
       <c r="I46" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J46" t="n">
         <v>184.1040156910041</v>
@@ -7810,13 +7810,13 @@
         <v>445.9494722557545</v>
       </c>
       <c r="L46" t="n">
-        <v>835.9566489090885</v>
+        <v>835.9566489090889</v>
       </c>
       <c r="M46" t="n">
-        <v>1262.460299238252</v>
+        <v>1262.460299238253</v>
       </c>
       <c r="N46" t="n">
-        <v>1675.269665473201</v>
+        <v>1675.269665473202</v>
       </c>
       <c r="O46" t="n">
         <v>2066.015649511878</v>
@@ -7825,7 +7825,7 @@
         <v>2391.932716792692</v>
       </c>
       <c r="Q46" t="n">
-        <v>2554.250702392367</v>
+        <v>2554.250702392368</v>
       </c>
       <c r="R46" t="n">
         <v>2543.247039960994</v>
@@ -7840,13 +7840,13 @@
         <v>1957.693048850696</v>
       </c>
       <c r="V46" t="n">
-        <v>1712.016532340179</v>
+        <v>1712.01653234018</v>
       </c>
       <c r="W46" t="n">
-        <v>1473.199079394146</v>
+        <v>1473.199079394147</v>
       </c>
       <c r="X46" t="n">
-        <v>1266.670133721405</v>
+        <v>1266.670133721406</v>
       </c>
       <c r="Y46" t="n">
         <v>1076.362316292602</v>
@@ -7976,16 +7976,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.53626961840621</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>63.88091092762902</v>
+        <v>551.4259247854858</v>
       </c>
       <c r="L2" t="n">
-        <v>66.42835256544261</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>102.2168137468371</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
@@ -7994,13 +7994,13 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>553.2366858009077</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>62.01294749699718</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,22 +8052,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>50.51554396615302</v>
+        <v>538.0605578240098</v>
       </c>
       <c r="L3" t="n">
-        <v>50.63139684704925</v>
+        <v>538.1764107049061</v>
       </c>
       <c r="M3" t="n">
-        <v>51.21309064514766</v>
+        <v>453.9197772322921</v>
       </c>
       <c r="N3" t="n">
-        <v>48.32332581574237</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
@@ -8079,7 +8079,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8137,25 +8137,25 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>49.08096458553168</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>48.89905749790193</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>50.69175002430551</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>48.86521110842008</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>22.49918749842445</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>50.3476648811921</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,16 +8213,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>322.3281801399324</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>331.2202630869688</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>318.5048079717839</v>
+        <v>300.4545145390017</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
@@ -8234,7 +8234,7 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.0328952589439</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8295,7 +8295,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>315.3074544876792</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
@@ -8304,19 +8304,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>314.2512488678876</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>314.6790618591746</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>220.9727953969839</v>
+        <v>181.0208015487716</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>314.8269805500471</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
-        <v>315.4836605458317</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
-        <v>313.6571216299463</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>22.49918749842445</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>303.4543457303386</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>102.4815180266284</v>
       </c>
       <c r="K8" t="n">
-        <v>497.1645065551435</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>499.7119481929572</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>113.9226282079388</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8529,19 +8529,19 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>483.7991395936675</v>
+        <v>173.1511355154377</v>
       </c>
       <c r="L9" t="n">
-        <v>483.9149924745637</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>99.28895563385618</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
@@ -8550,10 +8550,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8608,7 +8608,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
         <v>249.7804132464869</v>
@@ -8617,7 +8617,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M10" t="n">
-        <v>100.3044564185466</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N10" t="n">
         <v>402.0534574160406</v>
@@ -8687,16 +8687,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>176.5217064872907</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>660.9541399377122</v>
       </c>
       <c r="N11" t="n">
         <v>1023.391803124043</v>
@@ -8711,7 +8711,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,31 +8766,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>944.0661841558899</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
-        <v>418.6332501171365</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>413.6325257224759</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406071</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,22 +9003,22 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>43.54168314167935</v>
+        <v>944.0661841558899</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9027,7 +9027,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,10 +9170,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>858.928721049755</v>
+        <v>304.4845953330621</v>
       </c>
       <c r="N17" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9182,7 +9182,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9243,7 +9243,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
@@ -9252,13 +9252,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1074.760401518194</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>796.7117190241454</v>
+        <v>530.2476341400729</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9407,10 +9407,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>150.7139701010918</v>
+        <v>56.96224792397811</v>
       </c>
       <c r="N20" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9474,16 +9474,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>844.0764819672688</v>
       </c>
       <c r="M21" t="n">
         <v>23.09678051232798</v>
@@ -9492,16 +9492,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>575.0154519389184</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>349.3739808808488</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M23" t="n">
         <v>37.43126289943181</v>
@@ -9717,10 +9717,10 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>247.6270611911683</v>
       </c>
       <c r="M24" t="n">
         <v>23.09678051232798</v>
@@ -9729,16 +9729,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>293.0516819980064</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,19 +9872,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>129.8669649843445</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
@@ -9896,7 +9896,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9963,16 +9963,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>226.402256022168</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>921.6378271075471</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P27" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10194,22 +10194,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1004.802661823039</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10352,7 +10352,7 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>586.4197136125407</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10364,10 +10364,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>276.5086361339571</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10440,7 +10440,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>575.0154519389184</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P33" t="n">
         <v>745.2028786174529</v>
@@ -10449,7 +10449,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,13 +10592,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>498.2398993278321</v>
       </c>
       <c r="N35" t="n">
-        <v>337.3393185878494</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
         <v>753.0089771212694</v>
@@ -10668,19 +10668,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>749.1541615704315</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>226.402256022168</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
         <v>22.7470382889785</v>
@@ -10829,13 +10829,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>498.2398993278321</v>
       </c>
       <c r="N38" t="n">
-        <v>337.3393185878504</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
         <v>753.0089771212694</v>
@@ -10902,16 +10902,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>408.3532410469382</v>
       </c>
       <c r="N39" t="n">
-        <v>1003.048909524252</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -11066,13 +11066,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>379.3444866548641</v>
       </c>
       <c r="O41" t="n">
-        <v>337.4506551094275</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
@@ -11081,7 +11081,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,25 +11136,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>508.3773122949099</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>26.37892716579976</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
@@ -11303,13 +11303,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>379.3444866548641</v>
       </c>
       <c r="O44" t="n">
-        <v>337.4506551094275</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
@@ -11318,7 +11318,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>96.04215463984987</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>260.341792196742</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>26.86140143470169</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>62.45470603112259</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>68.77571864162749</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>184.1684127018497</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>103.4398154931159</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>26.86140143470193</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>45.40878801874302</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23744,10 +23744,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>96.04215463985042</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>260.341792196742</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>26.86140143470183</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>236.5356156878662</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.77571864162749</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>287.6082281949651</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>26.86140143470199</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>236.5838919079013</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>26.86140143470214</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>236.5838919079008</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>45.91410070006255</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24649,7 +24649,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>236.5356156878669</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>71.98949189919234</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>71.98949189919183</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>-5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>132.2608181713055</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>267.2851163790771</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>210.2329186311148</v>
       </c>
     </row>
     <row r="35">
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>-4.263256414560601e-13</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25391,7 +25391,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-9.023892744153272e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>6.679101716144942e-13</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>-8.455458555545192e-13</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>484679.5833526006</v>
+        <v>505135.1197563809</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>496160.3186730309</v>
+        <v>506383.1908193732</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>503465.7096745354</v>
+        <v>506383.1908193732</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>494200.5598310642</v>
+        <v>506623.4227823463</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>494200.5598310641</v>
+        <v>506623.4227823462</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>494200.5598310642</v>
+        <v>506623.4227823462</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>494200.5598310641</v>
+        <v>506623.4227823462</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>519775.1049274596</v>
+        <v>506623.4227823462</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>520210.8791657138</v>
+        <v>511389.9200101681</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>520210.8791657138</v>
+        <v>520210.8791657139</v>
       </c>
     </row>
     <row r="15">
@@ -26320,40 +26320,40 @@
         <v>538759.4679103256</v>
       </c>
       <c r="E2" t="n">
-        <v>511922.5947928976</v>
+        <v>519878.1229021386</v>
       </c>
       <c r="F2" t="n">
-        <v>511922.5947928975</v>
+        <v>519878.1229021386</v>
       </c>
       <c r="G2" t="n">
-        <v>511922.5947928977</v>
+        <v>519878.1229021385</v>
       </c>
       <c r="H2" t="n">
-        <v>511922.5947928976</v>
+        <v>519878.1229021384</v>
       </c>
       <c r="I2" t="n">
-        <v>538163.1447984758</v>
+        <v>519878.1229021384</v>
       </c>
       <c r="J2" t="n">
-        <v>519878.1229021383</v>
+        <v>519878.1229021384</v>
       </c>
       <c r="K2" t="n">
-        <v>519878.1229021386</v>
+        <v>519878.1229021384</v>
       </c>
       <c r="L2" t="n">
-        <v>538759.467910326</v>
+        <v>525222.3773696959</v>
       </c>
       <c r="M2" t="n">
-        <v>538759.467910326</v>
+        <v>538759.4679103262</v>
       </c>
       <c r="N2" t="n">
-        <v>538759.467910326</v>
+        <v>538759.4679103257</v>
       </c>
       <c r="O2" t="n">
-        <v>538759.467910326</v>
+        <v>538759.4679103261</v>
       </c>
       <c r="P2" t="n">
-        <v>538759.467910326</v>
+        <v>538759.4679103262</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9422.422200640931</v>
+        <v>172809.9698797275</v>
       </c>
       <c r="C3" t="n">
-        <v>85546.5041794401</v>
+        <v>13105.84347019869</v>
       </c>
       <c r="D3" t="n">
-        <v>52338.57214447315</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>204401.7134596184</v>
+        <v>215739.3565566404</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>24420.21632826568</v>
+        <v>1.813903054426191e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>42294.81965085294</v>
+        <v>134919.6914542165</v>
       </c>
       <c r="K3" t="n">
-        <v>68148.96442710416</v>
+        <v>10440.51617310181</v>
       </c>
       <c r="L3" t="n">
-        <v>36358.46410370003</v>
+        <v>8077.990108497359</v>
       </c>
       <c r="M3" t="n">
-        <v>147533.1209819143</v>
+        <v>166235.461807772</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>305120.5826568028</v>
+        <v>173411.7992128439</v>
       </c>
       <c r="C4" t="n">
-        <v>231198.6061196089</v>
+        <v>165375.7390424566</v>
       </c>
       <c r="D4" t="n">
-        <v>184160.7703768716</v>
+        <v>165375.7390424566</v>
       </c>
       <c r="E4" t="n">
-        <v>73226.69586079576</v>
+        <v>43748.40045389564</v>
       </c>
       <c r="F4" t="n">
-        <v>73226.69586079576</v>
+        <v>43748.40045389559</v>
       </c>
       <c r="G4" t="n">
-        <v>73226.69586079576</v>
+        <v>43748.40045389562</v>
       </c>
       <c r="H4" t="n">
-        <v>73226.69586079576</v>
+        <v>43748.40045389564</v>
       </c>
       <c r="I4" t="n">
-        <v>75440.92339458491</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="J4" t="n">
         <v>43748.40045389556</v>
@@ -26445,7 +26445,7 @@
         <v>43748.40045389556</v>
       </c>
       <c r="L4" t="n">
-        <v>76430.31156290731</v>
+        <v>47070.97709963557</v>
       </c>
       <c r="M4" t="n">
         <v>76430.3115629073</v>
@@ -26467,28 +26467,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35337.07165607544</v>
+        <v>64979.80849863312</v>
       </c>
       <c r="C5" t="n">
-        <v>51436.41981578423</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>66952.18391589135</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="F5" t="n">
-        <v>66952.18391589134</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="G5" t="n">
-        <v>66952.18391589134</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="H5" t="n">
-        <v>66952.18391589134</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="I5" t="n">
-        <v>72535.6058824098</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
         <v>77750.06218842969</v>
@@ -26497,19 +26497,19 @@
         <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>72383.20046482544</v>
+        <v>78598.94787646877</v>
       </c>
       <c r="M5" t="n">
-        <v>72383.20046482541</v>
+        <v>72383.20046482542</v>
       </c>
       <c r="N5" t="n">
         <v>72383.20046482542</v>
       </c>
       <c r="O5" t="n">
-        <v>72383.20046482541</v>
+        <v>72383.20046482542</v>
       </c>
       <c r="P5" t="n">
-        <v>72383.20046482541</v>
+        <v>72383.20046482542</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>188879.3913968065</v>
+        <v>127557.8903191211</v>
       </c>
       <c r="C6" t="n">
-        <v>170577.9377954923</v>
+        <v>292831.6343602421</v>
       </c>
       <c r="D6" t="n">
-        <v>240579.4111187526</v>
+        <v>305937.4778304409</v>
       </c>
       <c r="E6" t="n">
-        <v>167342.0015565921</v>
+        <v>182589.2730409886</v>
       </c>
       <c r="F6" t="n">
-        <v>371743.7150162103</v>
+        <v>398328.6295976291</v>
       </c>
       <c r="G6" t="n">
-        <v>371743.7150162106</v>
+        <v>398328.629597629</v>
       </c>
       <c r="H6" t="n">
-        <v>371743.7150162105</v>
+        <v>398328.6295976289</v>
       </c>
       <c r="I6" t="n">
-        <v>365766.3991932154</v>
+        <v>398328.6295976287</v>
       </c>
       <c r="J6" t="n">
-        <v>356084.8406089601</v>
+        <v>263408.9381434123</v>
       </c>
       <c r="K6" t="n">
-        <v>330230.6958327092</v>
+        <v>387888.1134245271</v>
       </c>
       <c r="L6" t="n">
-        <v>353587.4917788932</v>
+        <v>391437.8755539033</v>
       </c>
       <c r="M6" t="n">
-        <v>242412.834900679</v>
+        <v>223710.4940748215</v>
       </c>
       <c r="N6" t="n">
-        <v>389945.9558825932</v>
+        <v>389945.955882593</v>
       </c>
       <c r="O6" t="n">
         <v>389945.9558825933</v>
       </c>
       <c r="P6" t="n">
-        <v>389945.9558825933</v>
+        <v>389945.9558825935</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,7 +26713,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>35.67460137263964</v>
+        <v>10.0974876356217</v>
       </c>
       <c r="M2" t="n">
         <v>35.67460137263964</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.11631013281968</v>
+        <v>515.6613239906765</v>
       </c>
       <c r="C4" t="n">
-        <v>292.9082206543459</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>1053.417373304653</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="F4" t="n">
-        <v>1053.417373304653</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="G4" t="n">
-        <v>1053.417373304653</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="H4" t="n">
-        <v>1053.417373304653</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="I4" t="n">
-        <v>1145.24997143818</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="J4" t="n">
         <v>1278.783917572857</v>
@@ -26817,7 +26817,7 @@
         <v>1278.783917572857</v>
       </c>
       <c r="L4" t="n">
-        <v>1141.185401349161</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
         <v>1141.185401349161</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>35.67460137263964</v>
+        <v>10.0974876356217</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>25.57711373701794</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.11631013281968</v>
+        <v>515.6613239906765</v>
       </c>
       <c r="C4" t="n">
-        <v>264.7919105215262</v>
+        <v>40.56648912491767</v>
       </c>
       <c r="D4" t="n">
-        <v>168.4916851059883</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>592.0174675443186</v>
+        <v>722.556104457262</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>91.8325981335272</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>161.6502562674968</v>
+        <v>515.6613239906765</v>
       </c>
       <c r="K4" t="n">
-        <v>264.7919105215262</v>
+        <v>40.56648912491767</v>
       </c>
       <c r="L4" t="n">
-        <v>30.8931688822926</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>592.0174675443182</v>
+        <v>584.9575882335661</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>28.11631013281968</v>
+        <v>515.6613239906765</v>
       </c>
       <c r="K4" t="n">
-        <v>264.7919105215262</v>
+        <v>40.56648912491767</v>
       </c>
       <c r="L4" t="n">
-        <v>168.4916851059883</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>592.0174675443186</v>
+        <v>722.556104457262</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>100.362746423086</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27439,13 +27439,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,25 +27455,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>91.56599848268269</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>74.68524876704814</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>93.11323406457203</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>52.84233230531351</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27506,25 +27506,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>80.51100496435802</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>140.4611363452985</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>154.80420398674</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>202.9234074721264</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>194.556163395115</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>133.726262638184</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>138.2959597602405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>142.1365273570535</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>133.5672950116773</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>139.7812778236874</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>42.32485936564126</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
@@ -27597,13 +27597,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>212.0219474558332</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>122.7416599942688</v>
+        <v>152.6181964616704</v>
       </c>
       <c r="C5" t="n">
-        <v>129.723502032487</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27628,10 +27628,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>212.8386122756514</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>1.98147408635964</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -27670,19 +27670,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27701,10 +27701,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27743,13 +27743,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>80.51100496435802</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>111.0735411051414</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>138.2959597602405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
@@ -27828,19 +27828,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>117.2205539080134</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>49.49059737445873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>152.6181964616706</v>
+      </c>
+      <c r="E8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
+      <c r="F8" t="n">
         <v>400</v>
       </c>
-      <c r="D8" t="n">
-        <v>213.4027168294475</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27907,13 +27907,13 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
@@ -28059,7 +28059,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>168.4336970060574</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -28068,10 +28068,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>117.2205539080134</v>
       </c>
       <c r="W10" t="n">
-        <v>206.3343440542548</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>34.5479025439635</v>
+        <v>1.108506085993625e-12</v>
       </c>
       <c r="D11" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>34.5479025439635</v>
+        <v>5.400124791776761e-13</v>
       </c>
       <c r="U17" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>34.5479025439635</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="E20" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>34.5479025439635</v>
+        <v>6.936877707947525e-14</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.0974876356217</v>
       </c>
       <c r="C34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.0974876356217</v>
       </c>
       <c r="D34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.0974876356217</v>
       </c>
       <c r="E34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.0974876356217</v>
       </c>
       <c r="F34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.0974876356217</v>
       </c>
       <c r="G34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.0974876356217</v>
       </c>
       <c r="H34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.0974876356217</v>
       </c>
       <c r="I34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.0974876356217</v>
       </c>
       <c r="J34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.0974876356217</v>
       </c>
       <c r="K34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.0974876356217</v>
       </c>
       <c r="L34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.0974876356217</v>
       </c>
       <c r="M34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.0974876356217</v>
       </c>
       <c r="N34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.0974876356217</v>
       </c>
       <c r="O34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.0974876356217</v>
       </c>
       <c r="P34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.0974876356217</v>
       </c>
       <c r="Q34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.0974876356217</v>
       </c>
       <c r="R34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.0974876356217</v>
       </c>
       <c r="S34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.0974876356217</v>
       </c>
       <c r="T34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.0974876356217</v>
       </c>
       <c r="U34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.0974876356217</v>
       </c>
       <c r="V34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.0974876356217</v>
       </c>
       <c r="W34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.0974876356217</v>
       </c>
       <c r="X34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.0974876356217</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.0974876356217</v>
       </c>
     </row>
     <row r="35">
@@ -34696,16 +34696,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.11631013281968</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>28.11631013281968</v>
+        <v>515.6613239906765</v>
       </c>
       <c r="L2" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>64.78555084740533</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34714,13 +34714,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>515.6613239906765</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>26.98029760220071</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,22 +34772,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>28.11631013281968</v>
+        <v>515.6613239906765</v>
       </c>
       <c r="L3" t="n">
-        <v>28.11631013281968</v>
+        <v>515.6613239906765</v>
       </c>
       <c r="M3" t="n">
-        <v>28.11631013281968</v>
+        <v>430.8229967199641</v>
       </c>
       <c r="N3" t="n">
-        <v>26.98029760220071</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34799,7 +34799,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>28.11631013281968</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>26.98029760220071</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>28.11631013281968</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>28.11631013281968</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>25.72810211640715</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,16 +34933,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>292.9082206543459</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>292.9082206543459</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>281.0735450723521</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34954,7 +34954,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>292.9082206543459</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>292.9082206543459</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35024,19 +35024,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>292.9082206543459</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>292.9082206543459</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>198.2257571080054</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>292.9082206543459</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
-        <v>292.9082206543459</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>292.9082206543459</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>281.0735450723521</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>73.06155854104185</v>
       </c>
       <c r="K8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>76.49136530850697</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,19 +35249,19 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>461.3999057603342</v>
+        <v>150.7519016821044</v>
       </c>
       <c r="L9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>77.9459274203145</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35270,10 +35270,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
         <v>228.8157587937749</v>
@@ -35337,7 +35337,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M10" t="n">
-        <v>77.72901652706079</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N10" t="n">
         <v>381.3045564404402</v>
@@ -35407,16 +35407,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>140.7571056924814</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>623.5228770382804</v>
       </c>
       <c r="N11" t="n">
         <v>986.1121802895968</v>
@@ -35431,7 +35431,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>920.9694036435619</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
-        <v>396.8624089123078</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K13" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L13" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M13" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N13" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O13" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P13" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q13" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>377.8679249276666</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061611</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>20.44490262935137</v>
+        <v>920.9694036435619</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K16" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L16" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M16" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N16" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O16" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P16" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q16" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,10 +35890,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>821.4974581503233</v>
+        <v>267.0533324336303</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35902,7 +35902,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35972,13 +35972,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1053.417373304653</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>773.5398293019232</v>
+        <v>507.0757444178507</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L19" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M19" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N19" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O19" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P19" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q19" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36127,10 +36127,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>113.28270720166</v>
+        <v>19.53098502454629</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>821.5613952530392</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36212,16 +36212,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>551.8435622166962</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K22" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L22" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M22" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N22" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O22" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P22" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q22" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>311.0619384482258</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -36437,10 +36437,10 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>225.1119744769387</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36449,16 +36449,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>269.8797922757842</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K25" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L25" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M25" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N25" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O25" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P25" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q25" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>94.10236418953517</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
@@ -36616,7 +36616,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36683,16 +36683,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>898.4659373853249</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P27" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,22 +36914,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>939.015199615431</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37084,10 +37084,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>240.383961529359</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37160,7 +37160,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>551.8435622166962</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P33" t="n">
         <v>723.4320374126243</v>
@@ -37169,7 +37169,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>93.74665008391037</v>
+        <v>68.16953634689243</v>
       </c>
       <c r="K34" t="n">
-        <v>264.4903601664146</v>
+        <v>238.9132464293966</v>
       </c>
       <c r="L34" t="n">
-        <v>393.9466430841758</v>
+        <v>368.3695293471578</v>
       </c>
       <c r="M34" t="n">
-        <v>430.8117680092566</v>
+        <v>405.2346542722387</v>
       </c>
       <c r="N34" t="n">
-        <v>416.9791578130798</v>
+        <v>391.4020440760619</v>
       </c>
       <c r="O34" t="n">
-        <v>394.6929131703801</v>
+        <v>369.1157994333622</v>
       </c>
       <c r="P34" t="n">
-        <v>329.2091588695093</v>
+        <v>303.6320451324914</v>
       </c>
       <c r="Q34" t="n">
-        <v>163.9575612117931</v>
+        <v>138.3804474747752</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,13 +37312,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>460.8086364284002</v>
       </c>
       <c r="N35" t="n">
-        <v>300.0596957534034</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
         <v>715.433615311038</v>
@@ -37388,19 +37388,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>205.0592278086264</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O36" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37549,13 +37549,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>460.8086364284002</v>
       </c>
       <c r="N38" t="n">
-        <v>300.0596957534044</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
         <v>715.433615311038</v>
@@ -37622,16 +37622,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
         <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="N39" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37786,13 +37786,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>342.0648638204181</v>
       </c>
       <c r="O41" t="n">
-        <v>300.0596957534034</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
@@ -37801,7 +37801,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>485.8622255806804</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>3.207037443577533</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38023,13 +38023,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>342.0648638204181</v>
       </c>
       <c r="O44" t="n">
-        <v>300.0596957534034</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
@@ -38038,7 +38038,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
